--- a/src/main/resources/iscri.xlsx
+++ b/src/main/resources/iscri.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteomancinelli/Desktop/Uni/Stage/PiattaformaPCTO_v2/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B0304B-01DE-C542-8983-782570B5271A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4F7109-D908-4943-89F3-C92A63B4CF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6263,8 +6263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A223" sqref="A223:XFD223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
